--- a/Server/Data/ScoreTracker.xlsx
+++ b/Server/Data/ScoreTracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/KING/Desktop/GitHub/GolfProject/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47AE0A33-6CBB-9840-8B1F-865BF246A9EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9CDB5B3-3C2E-D040-BEF4-536B0B9217D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{64D8AD85-4358-7A49-923B-1DEC937FD484}"/>
   </bookViews>
@@ -514,7 +514,7 @@
   <dimension ref="B2:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
